--- a/BAB 4/UI/Graph/Sample Excel.xlsx
+++ b/BAB 4/UI/Graph/Sample Excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21870" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Rekapitulasi Pembinaan perMHS" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Tanggal</t>
   </si>
@@ -97,9 +97,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,68 +132,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="id-ID"/>
-              <a:t>Pembinaan</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="id-ID" baseline="0"/>
-              <a:t> Periode 3/01/2017 sampai 10/01/2017</a:t>
-            </a:r>
-            <a:endParaRPr lang="id-ID"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -214,21 +154,107 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Rekapitulasi Pembinaan perMHS'!$C$8:$C$15</c:f>
+              <c:f>'Rekapitulasi Pembinaan perMHS'!$C$8:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>42738</c:v>
                 </c:pt>
@@ -250,18 +276,15 @@
                 <c:pt idx="6">
                   <c:v>42744</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>42745</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Rekapitulasi Pembinaan perMHS'!$D$8:$D$15</c:f>
+              <c:f>'Rekapitulasi Pembinaan perMHS'!$D$8:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>80</c:v>
                 </c:pt>
@@ -283,9 +306,6 @@
                 <c:pt idx="6">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -305,21 +325,107 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Rekapitulasi Pembinaan perMHS'!$C$8:$C$15</c:f>
+              <c:f>'Rekapitulasi Pembinaan perMHS'!$C$8:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>42738</c:v>
                 </c:pt>
@@ -341,18 +447,15 @@
                 <c:pt idx="6">
                   <c:v>42744</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>42745</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Rekapitulasi Pembinaan perMHS'!$E$8:$E$15</c:f>
+              <c:f>'Rekapitulasi Pembinaan perMHS'!$E$8:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -374,9 +477,6 @@
                 <c:pt idx="6">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -396,21 +496,107 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Rekapitulasi Pembinaan perMHS'!$C$8:$C$15</c:f>
+              <c:f>'Rekapitulasi Pembinaan perMHS'!$C$8:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>42738</c:v>
                 </c:pt>
@@ -432,18 +618,15 @@
                 <c:pt idx="6">
                   <c:v>42744</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>42745</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Rekapitulasi Pembinaan perMHS'!$F$8:$F$15</c:f>
+              <c:f>'Rekapitulasi Pembinaan perMHS'!$F$8:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -465,28 +648,26 @@
                 <c:pt idx="6">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1925856160"/>
-        <c:axId val="1925845280"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="-894609840"/>
+        <c:axId val="-894604400"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="1925856160"/>
+        <c:axId val="-894609840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -517,8 +698,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -529,14 +710,14 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1925845280"/>
+        <c:crossAx val="-894604400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1925845280"/>
+        <c:axId val="-894604400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -575,8 +756,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -587,7 +768,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1925856160"/>
+        <c:crossAx val="-894609840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -618,8 +799,8 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -683,6 +864,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Shalat</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="id-ID" baseline="0"/>
+              <a:t> Berjamaah</a:t>
+            </a:r>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -697,11 +908,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -728,12 +939,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -743,14 +958,91 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Rekapitulasi Pembinaan perMHS'!$D$21:$E$21</c:f>
@@ -769,24 +1061,25 @@
             <c:numRef>
               <c:f>'Rekapitulasi Pembinaan perMHS'!$D$22:$E$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>92.5</c:v>
+                  <c:v>91.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5</c:v>
+                  <c:v>8.5714285714285694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -801,11 +1094,16 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -818,9 +1116,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -837,14 +1135,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -884,6 +1198,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Tahsin</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="id-ID" baseline="0"/>
+              <a:t> / Tahfidz</a:t>
+            </a:r>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -898,11 +1242,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -929,12 +1273,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -944,14 +1292,91 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Rekapitulasi Pembinaan perMHS'!$D$34:$E$34</c:f>
@@ -970,24 +1395,25 @@
             <c:numRef>
               <c:f>'Rekapitulasi Pembinaan perMHS'!$D$35:$E$35</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>88.571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>11.428571428571431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -1002,11 +1428,16 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1019,9 +1450,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1038,14 +1469,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1085,6 +1532,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Ta'lim</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1099,11 +1571,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1130,12 +1602,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -1145,14 +1621,91 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Rekapitulasi Pembinaan perMHS'!$D$50:$E$50</c:f>
@@ -1184,11 +1737,12 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -1203,11 +1757,16 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1220,9 +1779,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1239,12 +1798,419 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Rata-rata</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="id-ID" baseline="0"/>
+              <a:t> nilai Pembinaan</a:t>
+            </a:r>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Rekapitulasi Pembinaan perMHS'!$D$15:$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Shalat</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tahsin</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ta'lim</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rekapitulasi Pembinaan perMHS'!$D$16:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>91.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
+        <c:axId val="-805104304"/>
+        <c:axId val="-805116816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-805104304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-805116816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-805116816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-805104304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1271,7 +2237,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1597,7 +2563,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1900,7 +2866,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2203,7 +3169,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2826,19 +3792,59 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2846,8 +3852,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -2868,7 +3874,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2884,7 +3890,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2892,8 +3898,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2927,36 +3933,62 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2968,30 +4000,33 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3008,20 +4043,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3036,15 +4069,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3055,17 +4088,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3074,17 +4107,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -3093,21 +4125,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3126,17 +4152,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3145,17 +4170,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3164,17 +4189,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3184,8 +4208,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3195,7 +4219,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -3203,7 +4227,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3212,10 +4236,21 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3223,17 +4258,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -3243,27 +4278,26 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3273,8 +4307,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3293,8 +4327,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3306,8 +4340,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3317,71 +4351,81 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3394,73 +4438,110 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
           <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -3470,37 +4551,37 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -3508,7 +4589,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3524,21 +4605,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3548,7 +4627,1569 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3559,346 +6200,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3913,9 +6215,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3925,23 +6226,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3949,77 +6245,123 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:effectRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -4027,7 +6369,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4043,21 +6385,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4067,20 +6406,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4092,14 +6430,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4111,14 +6448,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4130,30 +6466,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -4163,16 +6504,29 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -4182,14 +6536,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
             <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4201,14 +6554,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4220,27 +6572,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4248,9 +6599,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4260,14 +6610,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4279,12 +6628,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4293,14 +6641,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4309,9 +6658,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4321,17 +6669,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4343,9 +6692,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4355,538 +6703,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5417,7 +7240,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5934,7 +7757,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6451,7 +8274,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6973,15 +8796,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7085,6 +8908,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7483,8 +9336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7606,30 +9459,28 @@
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="1">
-        <v>42745</v>
+      <c r="C15" s="1"/>
+      <c r="D15" t="s">
+        <v>1</v>
       </c>
-      <c r="D15">
-        <v>100</v>
+      <c r="E15" t="s">
+        <v>2</v>
       </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
+      <c r="F15" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <f>AVERAGE(D8:D15)</f>
-        <v>92.5</v>
+      <c r="D16" s="2">
+        <f>AVERAGE(D8:D14)</f>
+        <v>91.428571428571431</v>
       </c>
-      <c r="E16">
-        <f t="shared" ref="E16:F16" si="0">AVERAGE(E8:E15)</f>
-        <v>90</v>
+      <c r="E16" s="2">
+        <f>AVERAGE(E8:E14)</f>
+        <v>88.571428571428569</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
+      <c r="F16" s="2">
+        <f>AVERAGE(F8:F14)</f>
         <v>100</v>
       </c>
     </row>
@@ -7642,13 +9493,13 @@
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22">
+      <c r="D22" s="2">
         <f>D16</f>
-        <v>92.5</v>
+        <v>91.428571428571431</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <f>100-D22</f>
-        <v>7.5</v>
+        <v>8.5714285714285694</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.25">
@@ -7660,13 +9511,13 @@
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D35">
+      <c r="D35" s="2">
         <f>E16</f>
-        <v>90</v>
+        <v>88.571428571428569</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <f>100-D35</f>
-        <v>10</v>
+        <v>11.428571428571431</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.25">
@@ -7687,7 +9538,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7695,8 +9547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O13" workbookViewId="0">
-      <selection activeCell="AB19" sqref="AB19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BAB 4/UI/Graph/Sample Excel.xlsx
+++ b/BAB 4/UI/Graph/Sample Excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21870" windowHeight="13170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20760" windowHeight="11190" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rekapitulasi Pembinaan perMHS" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>Tanggal</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>Tidak mencapai target</t>
+  </si>
+  <si>
+    <t>Ikhwan</t>
+  </si>
+  <si>
+    <t>Akhwat</t>
+  </si>
+  <si>
+    <t>Sudah hafal</t>
+  </si>
+  <si>
+    <t>Belum hafal</t>
+  </si>
+  <si>
+    <t>Jumlah Pelanggaran</t>
   </si>
 </sst>
 </file>
@@ -663,11 +678,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-894609840"/>
-        <c:axId val="-894604400"/>
+        <c:axId val="1924690000"/>
+        <c:axId val="1924675856"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-894609840"/>
+        <c:axId val="1924690000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -710,14 +725,14 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-894604400"/>
+        <c:crossAx val="1924675856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-894604400"/>
+        <c:axId val="1924675856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -768,7 +783,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-894609840"/>
+        <c:crossAx val="1924690000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -823,6 +838,3296 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Nilai Rata-rata Pembinaan Mahasiswa per Pekan Bulan </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="id-ID" sz="1600" b="1" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Ini</a:t>
+            </a:r>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rekapitulasi Pembinaan'!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ikhwan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Rekapitulasi Pembinaan'!$C$35:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rekapitulasi Pembinaan'!$C$36:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rekapitulasi Pembinaan'!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Akhwat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Rekapitulasi Pembinaan'!$C$35:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rekapitulasi Pembinaan'!$C$37:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2031527088"/>
+        <c:axId val="2031516752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2031527088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2031516752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2031516752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2031527088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Nilai Rata-Rata Shalat Berjamaah per Pekan Bulan Ini</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rekapitulasi Pembinaan'!$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ikhwan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Rekapitulasi Pembinaan'!$C$50:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rekapitulasi Pembinaan'!$C$51:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rekapitulasi Pembinaan'!$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Akhwat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Rekapitulasi Pembinaan'!$C$50:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rekapitulasi Pembinaan'!$C$52:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2035255280"/>
+        <c:axId val="2035256912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2035255280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2035256912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2035256912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2035255280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Nilai Rata-Rata Tahsin/Tahfidz per Pekan Bulan Ini</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rekapitulasi Pembinaan'!$B$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ikhwan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Rekapitulasi Pembinaan'!$C$66:$E$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rekapitulasi Pembinaan'!$C$67:$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rekapitulasi Pembinaan'!$B$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Akhwat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Rekapitulasi Pembinaan'!$C$66:$E$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rekapitulasi Pembinaan'!$C$68:$E$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2035260176"/>
+        <c:axId val="2035250928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2035260176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2035250928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2035250928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2035260176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID" b="1"/>
+              <a:t>Nilai Rata-Rata Ta'lim per Pekan Bulan Ini</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rekapitulasi Pembinaan'!$B$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ikhwan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Rekapitulasi Pembinaan'!$C$82:$E$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rekapitulasi Pembinaan'!$C$83:$E$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rekapitulasi Pembinaan'!$B$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Akhwat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Rekapitulasi Pembinaan'!$C$82:$E$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rekapitulasi Pembinaan'!$C$84:$E$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2035255824"/>
+        <c:axId val="2035248208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2035255824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2035248208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2035248208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2035255824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Progres Hafalan Quran Mahasiswa </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rekapitulasi Pembinaan'!$C$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sudah hafal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Rekapitulasi Pembinaan'!$B$99:$B$100</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Ikhwan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Akhwat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rekapitulasi Pembinaan'!$C$99:$C$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rekapitulasi Pembinaan'!$D$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Belum hafal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Rekapitulasi Pembinaan'!$B$99:$B$100</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Ikhwan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Akhwat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rekapitulasi Pembinaan'!$D$99:$D$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2031517840"/>
+        <c:axId val="2126531104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2031517840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2126531104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2126531104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2031517840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Pelanggaran Mahasiswa</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rekapitulasi Pembinaan'!$B$113</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ikhwan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Rekapitulasi Pembinaan'!$C$112</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jumlah Pelanggaran</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rekapitulasi Pembinaan'!$C$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rekapitulasi Pembinaan'!$B$114</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Akhwat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Rekapitulasi Pembinaan'!$C$112</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jumlah Pelanggaran</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rekapitulasi Pembinaan'!$C$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="247"/>
+        <c:axId val="2125890304"/>
+        <c:axId val="2125862560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2125890304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2125862560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2125862560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2125890304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -2051,11 +5356,11 @@
         </c:dLbls>
         <c:gapWidth val="315"/>
         <c:overlap val="-40"/>
-        <c:axId val="-805104304"/>
-        <c:axId val="-805116816"/>
+        <c:axId val="1924679664"/>
+        <c:axId val="1924684016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-805104304"/>
+        <c:axId val="1924679664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2116,7 +5421,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-805116816"/>
+        <c:crossAx val="1924684016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2124,7 +5429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-805116816"/>
+        <c:axId val="1924684016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2185,7 +5490,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-805104304"/>
+        <c:crossAx val="1924679664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3512,6 +6817,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4357,6 +7902,3330 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="303">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="221">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
@@ -9068,6 +15937,186 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9336,8 +16385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView topLeftCell="G16" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9545,10 +16594,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:D27"/>
+  <dimension ref="B4:E114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="O110" sqref="O110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9627,6 +16676,213 @@
         <v>2</v>
       </c>
     </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>94</v>
+      </c>
+      <c r="D36">
+        <v>96</v>
+      </c>
+      <c r="E36">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>95</v>
+      </c>
+      <c r="D37">
+        <v>94</v>
+      </c>
+      <c r="E37">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>95</v>
+      </c>
+      <c r="D51">
+        <v>89</v>
+      </c>
+      <c r="E51">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52">
+        <v>91</v>
+      </c>
+      <c r="D52">
+        <v>93</v>
+      </c>
+      <c r="E52">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>95</v>
+      </c>
+      <c r="D67">
+        <v>90</v>
+      </c>
+      <c r="E67">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68">
+        <v>91</v>
+      </c>
+      <c r="D68">
+        <v>93</v>
+      </c>
+      <c r="E68">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83">
+        <v>95</v>
+      </c>
+      <c r="D83">
+        <v>92</v>
+      </c>
+      <c r="E83">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84">
+        <v>98</v>
+      </c>
+      <c r="D84">
+        <v>94</v>
+      </c>
+      <c r="E84">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99">
+        <v>65</v>
+      </c>
+      <c r="D99">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100">
+        <v>80</v>
+      </c>
+      <c r="D100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
